--- a/disagreement_matrix/engineering_version/auc_results/Ionosphere_withoutdupl_norm_auc_collection.xlsx
+++ b/disagreement_matrix/engineering_version/auc_results/Ionosphere_withoutdupl_norm_auc_collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>combination</t>
   </si>
@@ -380,6 +380,126 @@
   </si>
   <si>
     <t>ensem_sodi:thr_std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_2std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_iqr:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_iqr:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_iqr:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_iqr:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_iqr:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_mad:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_mad:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_mad:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_mad:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_mad:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self:thr_std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_2std:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_iqr:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_mad:dis_max_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_std</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_mad</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_sum_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_std_rsd</t>
+  </si>
+  <si>
+    <t>ensem_sum_self_inverse:thr_std:dis_max_rsd</t>
   </si>
   <si>
     <t>best_base_auc</t>
@@ -740,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.8775661375661374</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -773,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.870405643738977</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -784,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.8779894179894179</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -795,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.8828924162257495</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -806,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.8835273368606702</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -817,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.8825396825396825</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -828,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8699823633156967</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -839,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.8821869488536155</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -850,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.8809171075837742</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -861,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.8809876543209877</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -872,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.8767548500881833</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -883,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.868641975308642</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -894,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.8732275132275132</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -905,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.8798941798941798</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -916,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.8778130511463844</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -927,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.8821516754850088</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -938,7 +1058,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.8764726631393297</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -949,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.8821869488536155</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -960,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.8807054673721341</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -971,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.8806701940035273</v>
+        <v>0.8902645502645502</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -982,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.9151499118165785</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -993,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.9334567901234568</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1004,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.9163492063492062</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1015,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.9132804232804232</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1026,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.9127513227513228</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1037,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.9167019400352732</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1048,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.9380423280423281</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1059,7 +1179,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.918289241622575</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1070,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.914973544973545</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1081,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.9147266313932981</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1092,7 +1212,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.9232980599647266</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1103,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.9401234567901235</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1114,7 +1234,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.9314109347442679</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1125,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.9096119929453262</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1136,7 +1256,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.9154320987654321</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1147,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.914021164021164</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1158,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.920405643738977</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1169,7 +1289,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.9185714285714286</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1180,7 +1300,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.9166313932980599</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1191,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.9165961199294532</v>
+        <v>0.8281128747795414</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1202,7 +1322,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.9035626102292769</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1213,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.9098059964726631</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1224,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.9041269841269841</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1235,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.9046560846560846</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1246,7 +1366,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.9049382716049382</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1257,7 +1377,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.9068783068783068</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1268,7 +1388,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.9115343915343915</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1279,7 +1399,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.9067019400352733</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1290,7 +1410,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.9046913580246914</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1301,7 +1421,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.9046560846560846</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1312,7 +1432,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.90663139329806</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1323,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.9112874779541447</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1334,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.9088183421516753</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1345,7 +1465,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.8993650793650793</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1356,7 +1476,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.9005996472663139</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1367,7 +1487,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.9058906525573192</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1378,7 +1498,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.9056790123456789</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1389,7 +1509,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.90673721340388</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1400,7 +1520,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.9045502645502645</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1411,7 +1531,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.9044444444444444</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1422,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.9035626102292769</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1433,7 +1553,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.9098059964726631</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1444,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.9041269841269841</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1455,7 +1575,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.9046560846560846</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1466,7 +1586,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.9049382716049382</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1477,7 +1597,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.9068783068783068</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1488,7 +1608,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.9115343915343915</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1499,7 +1619,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.9067019400352733</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1510,7 +1630,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.9046913580246914</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1521,7 +1641,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.9046560846560846</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1532,7 +1652,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.90663139329806</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1543,7 +1663,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.9112874779541447</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1554,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.9088183421516753</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1565,7 +1685,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.8993650793650793</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1576,7 +1696,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.9005996472663139</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1587,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.9058906525573192</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1598,7 +1718,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.9056790123456789</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1609,7 +1729,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.90673721340388</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1620,7 +1740,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.9045502645502645</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1631,7 +1751,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.9044444444444444</v>
+        <v>0.8975661375661376</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1642,7 +1762,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.9055026455026455</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1653,7 +1773,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.9124867724867725</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1664,7 +1784,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.9061375661375661</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1675,7 +1795,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.9061728395061728</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1686,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.9063492063492063</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1697,7 +1817,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>0.9090652557319224</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1708,7 +1828,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>0.9146384479717813</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1719,7 +1839,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>0.9089241622574955</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1730,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>0.9064902998236332</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1741,7 +1861,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>0.9063492063492063</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1752,7 +1872,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>0.9083245149911816</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1763,7 +1883,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>0.914320987654321</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1774,7 +1894,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>0.9107583774250442</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1785,7 +1905,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>0.9001763668430335</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1796,7 +1916,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>0.9016931216931217</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1807,7 +1927,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>0.9079365079365079</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1818,7 +1938,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>0.908042328042328</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1829,7 +1949,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>0.9089594356261023</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1840,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>0.9064197530864198</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1851,7 +1971,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>0.9062786596119929</v>
+        <v>0.9100176366843034</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1862,7 +1982,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>0.896084656084656</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1873,7 +1993,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>0.901305114638448</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1884,7 +2004,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>0.8962962962962963</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1895,7 +2015,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>0.8973897707231041</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1906,7 +2026,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>0.897636684303351</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1917,7 +2037,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>0.8986948853615521</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1928,7 +2048,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>0.9029982363315696</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1939,7 +2059,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>0.8984832451499118</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1950,7 +2070,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>0.8971428571428571</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1961,7 +2081,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>0.8971428571428571</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1972,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>0.8997883597883598</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1983,7 +2103,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>0.902821869488536</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1994,7 +2114,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>0.901552028218695</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2005,7 +2125,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>0.8931216931216931</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2016,7 +2136,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>0.8942504409171076</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2027,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>0.897989417989418</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2038,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>0.8972486772486773</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2049,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>0.8985537918871253</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2060,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>0.8970017636684303</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2071,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>0.8968959435626102</v>
+        <v>0.8677954144620812</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2082,7 +2202,447 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>0.8943915343915344</v>
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
+        <v>0.8664197530864197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161">
+        <v>0.8921693121693122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162">
+        <v>0.9270194003527337</v>
       </c>
     </row>
   </sheetData>

--- a/disagreement_matrix/engineering_version/auc_results/Ionosphere_withoutdupl_norm_auc_collection.xlsx
+++ b/disagreement_matrix/engineering_version/auc_results/Ionosphere_withoutdupl_norm_auc_collection.xlsx
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -915,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -937,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -981,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1036,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1047,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1069,7 +1069,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1080,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.8902645502645502</v>
+        <v>0.890405643738977</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1102,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1113,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1135,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1146,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1157,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1168,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1179,7 +1179,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1190,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1201,7 +1201,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1212,7 +1212,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1223,7 +1223,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1234,7 +1234,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1256,7 +1256,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1267,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1289,7 +1289,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1300,7 +1300,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1311,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.8281128747795414</v>
+        <v>0.8284303350970018</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1333,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1355,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1366,7 +1366,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1377,7 +1377,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1388,7 +1388,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1399,7 +1399,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1410,7 +1410,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1432,7 +1432,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1443,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1454,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1465,7 +1465,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1476,7 +1476,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1487,7 +1487,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1498,7 +1498,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1509,7 +1509,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1520,7 +1520,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1531,7 +1531,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1542,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1553,7 +1553,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1564,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1608,7 +1608,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1619,7 +1619,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1641,7 +1641,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1652,7 +1652,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1674,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1685,7 +1685,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1696,7 +1696,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1718,7 +1718,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1729,7 +1729,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1751,7 +1751,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.8975661375661376</v>
+        <v>0.9004938271604939</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1773,7 +1773,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1784,7 +1784,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1795,7 +1795,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1806,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1817,7 +1817,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1850,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1861,7 +1861,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1883,7 +1883,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1905,7 +1905,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>0.9100176366843034</v>
+        <v>0.9130864197530864</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2026,7 +2026,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2037,7 +2037,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2048,7 +2048,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2070,7 +2070,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2081,7 +2081,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2092,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2191,7 +2191,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>0.8677954144620812</v>
+        <v>0.8664197530864198</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>129</v>
       </c>
       <c r="C129">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>130</v>
       </c>
       <c r="C130">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2367,7 +2367,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2378,7 +2378,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2411,7 +2411,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>0.8664197530864197</v>
+        <v>0.8699118165784833</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>0.8921693121693122</v>
+        <v>0.8935802469135803</v>
       </c>
     </row>
     <row r="162" spans="1:3">
